--- a/biology/Botanique/Vasconcellea_pubescens/Vasconcellea_pubescens.xlsx
+++ b/biology/Botanique/Vasconcellea_pubescens/Vasconcellea_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papayer de montagne
 Le papayer de montagne (Vasconcellea pubescens) est une espèce de plantes à fleurs de la famille des Caricaceae. Son fruit est savoureux ; il est originaire du nord-est de l'Amérique du Sud et est cultivé du Panamá jusqu'à l'Argentine et le Chili à des altitudes de 1 000 m jusqu'à 3 300 m.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante ressemble beaucoup au papayer ordinaire.
-C'est un arbuste ou un petit arbre vivace qui peut atteindre les 10 mètres de haut. Le fruit fait 6 à 15 cm de long pour 3 à 8 cm de large et comporte cinq segments longitudinaux partant de la pointe du fruit. Il est comestible et ressemble à la papaye. On peut le consommer frais ou préparé. Il est riche en enzymes digestives, notamment la papaïne[2].
+C'est un arbuste ou un petit arbre vivace qui peut atteindre les 10 mètres de haut. Le fruit fait 6 à 15 cm de long pour 3 à 8 cm de large et comporte cinq segments longitudinaux partant de la pointe du fruit. Il est comestible et ressemble à la papaye. On peut le consommer frais ou préparé. Il est riche en enzymes digestives, notamment la papaïne.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Usage alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dulce de papayuela ou papaye de montagne confite est un dessert traditionnel de Colombie et plus particulièrement des régions du centre du pays, dans les départements de Cundinamarca, Boyacá et Santander. La préparation est simple : il suffit de les faire cuire dans de l'eau pour les ramollir et les faire confire dans un sirop.
 </t>
@@ -575,11 +591,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vasconcellea pubescens a été décrite par Alphonse Pyrame de Candolle et a fait l'objet d'une publication dans Prodromus Systematis Naturalis Regni Vegetabilis 15(1): 419. 1864[3].
-Synonymes
-Carica candamarcensis Hook.f.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vasconcellea pubescens a été décrite par Alphonse Pyrame de Candolle et a fait l'objet d'une publication dans Prodromus Systematis Naturalis Regni Vegetabilis 15(1): 419. 1864.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vasconcellea_pubescens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vasconcellea_pubescens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carica candamarcensis Hook.f.
 Carica cestriflora Solms
 Carica chiriquensis Woodson
 Carica cundinamarcensis Linden
@@ -588,35 +641,37 @@
 Papaya cundinamarcencis Kuntze
 Papaya pubescens (A. DC.) Kuntze
 Vasconcellea cestriflora A. DC.
-Vasconcellea cundinamarcensis V.M. Badillo[4]</t>
+Vasconcellea cundinamarcensis V.M. Badillo</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vasconcellea_pubescens</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vasconcellea_pubescens</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Noms vulgaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Papaye de montagne
 En espagnol : Papayuelo, chamburo, papayuela, chilacuán, chamburú, chiluacán, papaya de tierra fría, sapira, papaya arequipeña surtout au Chili, simplement papaya parfois, chigualcan ou siglalón en Équateur.</t>
